--- a/JumiaAutomationTask/data/ProdEnvTestData/Jumia/JumiaAutomationTaskTestData.xlsx
+++ b/JumiaAutomationTask/data/ProdEnvTestData/Jumia/JumiaAutomationTaskTestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="615">
   <si>
     <t>usedFlag</t>
   </si>
@@ -4589,7 +4589,7 @@
         <v>1100000025</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">

--- a/JumiaAutomationTask/data/ProdEnvTestData/Jumia/JumiaAutomationTaskTestData.xlsx
+++ b/JumiaAutomationTask/data/ProdEnvTestData/Jumia/JumiaAutomationTaskTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momen\IdeaProjects\JumiaAutomationTask\data\ProdEnvTestData\Jumia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26689EEA-DC75-457A-B7C0-5DD67B058480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193BF021-DDB4-4853-A7A0-BE8DCD9E1EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{4C888EE6-5693-412F-BD48-1448D9943F08}"/>
   </bookViews>
@@ -6015,7 +6015,7 @@
     <t>validTestUserName989@gmail.com</t>
   </si>
   <si>
-    <t>usedEmailAddress</t>
+    <t>used</t>
   </si>
 </sst>
 </file>
@@ -8370,7 +8370,7 @@
   <dimension ref="A1:K989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
